--- a/data/trans_orig/P1416-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>38947</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27568</v>
+        <v>28253</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53316</v>
+        <v>52981</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.066673423875726</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04719443721121327</v>
+        <v>0.0483665600582219</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09127305513726132</v>
+        <v>0.09069846762217142</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -765,19 +765,19 @@
         <v>82689</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66560</v>
+        <v>66025</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101038</v>
+        <v>102410</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08965153171849381</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07216459456014376</v>
+        <v>0.07158503549342451</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1095457491574643</v>
+        <v>0.1110335971155116</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>118</v>
@@ -786,19 +786,19 @@
         <v>121635</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102585</v>
+        <v>101812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144065</v>
+        <v>147055</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08074168034786181</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06809598744786088</v>
+        <v>0.06758297877526857</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09563054383756879</v>
+        <v>0.09761545241499014</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>545194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>530825</v>
+        <v>531160</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>556573</v>
+        <v>555888</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9333265761242741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9087269448627385</v>
+        <v>0.9093015323778286</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9528055627887865</v>
+        <v>0.9516334399417782</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>804</v>
@@ -836,19 +836,19 @@
         <v>839644</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>821295</v>
+        <v>819923</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>855773</v>
+        <v>856308</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9103484682815062</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8904542508425359</v>
+        <v>0.8889664028844884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9278354054398562</v>
+        <v>0.9284149645065757</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1341</v>
@@ -857,19 +857,19 @@
         <v>1384839</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1362409</v>
+        <v>1359419</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1403889</v>
+        <v>1404662</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9192583196521382</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9043694561624313</v>
+        <v>0.9023845475850096</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9319040125521392</v>
+        <v>0.9324170212247312</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>82399</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64902</v>
+        <v>66473</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101631</v>
+        <v>101969</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07644486689727999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06021179279733205</v>
+        <v>0.061669651454091</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0942868043325001</v>
+        <v>0.09459997676923808</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>107</v>
@@ -982,19 +982,19 @@
         <v>111292</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92188</v>
+        <v>92449</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132997</v>
+        <v>133596</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1052366752156047</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08717203274254968</v>
+        <v>0.08741952328572652</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1257604969181327</v>
+        <v>0.126327688752392</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>187</v>
@@ -1003,19 +1003,19 @@
         <v>193691</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>168843</v>
+        <v>170378</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>221266</v>
+        <v>225022</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09070354194129945</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07906717224938317</v>
+        <v>0.07978604607236792</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.103616563478555</v>
+        <v>0.1053753837619717</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>995495</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>976263</v>
+        <v>975925</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1012992</v>
+        <v>1011421</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.92355513310272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9057131956674997</v>
+        <v>0.9054000232307619</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9397882072026676</v>
+        <v>0.9383303485459086</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>921</v>
@@ -1053,19 +1053,19 @@
         <v>946246</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>924541</v>
+        <v>923942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>965350</v>
+        <v>965089</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8947633247843952</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8742395030818674</v>
+        <v>0.873672311247608</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9128279672574503</v>
+        <v>0.9125804767142736</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1896</v>
@@ -1074,19 +1074,19 @@
         <v>1941741</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1914166</v>
+        <v>1910410</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1966589</v>
+        <v>1965054</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9092964580587005</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.896383436521445</v>
+        <v>0.8946246162380284</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9209328277506168</v>
+        <v>0.9202139539276322</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>65846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51699</v>
+        <v>50840</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84154</v>
+        <v>83726</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05870728852726061</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04609412091335471</v>
+        <v>0.04532878942247428</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07503076282554084</v>
+        <v>0.0746495401701168</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -1199,19 +1199,19 @@
         <v>82003</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66822</v>
+        <v>65579</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102369</v>
+        <v>101090</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08250307277637839</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06722980961877502</v>
+        <v>0.06597902812041198</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1029932716765438</v>
+        <v>0.1017063200623638</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -1220,19 +1220,19 @@
         <v>147849</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124859</v>
+        <v>126950</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>172026</v>
+        <v>171747</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06988724296332206</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05902026942899641</v>
+        <v>0.06000838070741614</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08131586216051417</v>
+        <v>0.08118380106696037</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1055748</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1037440</v>
+        <v>1037868</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1069895</v>
+        <v>1070754</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9412927114727394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9249692371744591</v>
+        <v>0.9253504598298832</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9539058790866453</v>
+        <v>0.9546712105775258</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>902</v>
@@ -1270,19 +1270,19 @@
         <v>911937</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>891571</v>
+        <v>892850</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>927118</v>
+        <v>928361</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9174969272236216</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8970067283234562</v>
+        <v>0.8982936799376362</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.932770190381225</v>
+        <v>0.934020971879588</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1941</v>
@@ -1291,19 +1291,19 @@
         <v>1967685</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1943508</v>
+        <v>1943787</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1990675</v>
+        <v>1988584</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.930112757036678</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9186841378394859</v>
+        <v>0.9188161989330398</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9409797305710036</v>
+        <v>0.9399916192925839</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>30329</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20673</v>
+        <v>20788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42625</v>
+        <v>42318</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06782015530964869</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04622788877188537</v>
+        <v>0.04648406006585751</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09531567862596807</v>
+        <v>0.09462983047003325</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1416,19 +1416,19 @@
         <v>40064</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28431</v>
+        <v>29600</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53176</v>
+        <v>53426</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1174342395813807</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0833361940434285</v>
+        <v>0.08676330447607453</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1558703987525365</v>
+        <v>0.1566011004062424</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -1437,19 +1437,19 @@
         <v>70393</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56440</v>
+        <v>55877</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90047</v>
+        <v>87431</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08929041815104381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07159148830251516</v>
+        <v>0.07087816025539619</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1142210410498407</v>
+        <v>0.1109028855423173</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>416871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>404575</v>
+        <v>404882</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>426527</v>
+        <v>426412</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9321798446903513</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9046843213740321</v>
+        <v>0.9053701695299671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9537721112281147</v>
+        <v>0.9535159399341432</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>300</v>
@@ -1487,19 +1487,19 @@
         <v>301094</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>287982</v>
+        <v>287732</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>312727</v>
+        <v>311558</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8825657604186192</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8441296012474635</v>
+        <v>0.8433988995937576</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9166638059565715</v>
+        <v>0.9132366955239255</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>707</v>
@@ -1508,19 +1508,19 @@
         <v>717965</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>698311</v>
+        <v>700927</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>731918</v>
+        <v>732481</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9107095818489562</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8857789589501592</v>
+        <v>0.8890971144576827</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9284085116974847</v>
+        <v>0.9291218397446038</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>217521</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>191537</v>
+        <v>188400</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>249492</v>
+        <v>247466</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0673266999457257</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05928428908491314</v>
+        <v>0.05831317509660294</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07722238533054712</v>
+        <v>0.07659531833143468</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>307</v>
@@ -1633,19 +1633,19 @@
         <v>316047</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>281407</v>
+        <v>282488</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>351913</v>
+        <v>350739</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09533937938470415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0848896655010852</v>
+        <v>0.08521583685186049</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.106158811508296</v>
+        <v>0.1058046564872157</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>517</v>
@@ -1654,19 +1654,19 @@
         <v>533568</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>495568</v>
+        <v>491123</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>578500</v>
+        <v>578626</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08151307680604603</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0757078632337285</v>
+        <v>0.07502875800729172</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08837725053597427</v>
+        <v>0.0883964923656374</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3013308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2981337</v>
+        <v>2983363</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3039292</v>
+        <v>3042429</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9326733000542743</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9227776146694529</v>
+        <v>0.9234046816685653</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9407157109150869</v>
+        <v>0.9416868249033971</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2927</v>
@@ -1704,19 +1704,19 @@
         <v>2998922</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2963056</v>
+        <v>2964230</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3033562</v>
+        <v>3032481</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9046606206152958</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.893841188491704</v>
+        <v>0.8941953435127842</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9151103344989148</v>
+        <v>0.9147841631481392</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5885</v>
@@ -1725,19 +1725,19 @@
         <v>6012230</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5967298</v>
+        <v>5967172</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6050230</v>
+        <v>6054675</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.918486923193954</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9116227494640259</v>
+        <v>0.9116035076343627</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9242921367662715</v>
+        <v>0.9249712419927086</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>54828</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40648</v>
+        <v>40923</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70244</v>
+        <v>70869</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05252085979503519</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03893686865308617</v>
+        <v>0.03920044123019903</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06728782817605714</v>
+        <v>0.06788625090993326</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -2090,19 +2090,19 @@
         <v>100138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81899</v>
+        <v>82569</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>122420</v>
+        <v>123085</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08951656568661628</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0732119171125209</v>
+        <v>0.07381095006706581</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1094353514778109</v>
+        <v>0.1100299921853846</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>142</v>
@@ -2111,19 +2111,19 @@
         <v>154966</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>131767</v>
+        <v>132297</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>182471</v>
+        <v>182086</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07165782000249878</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06093017092088415</v>
+        <v>0.06117548257491651</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08437635476443012</v>
+        <v>0.08419799135630907</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>989107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>973691</v>
+        <v>973066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1003287</v>
+        <v>1003012</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9474791402049648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9327121718239426</v>
+        <v>0.9321137490900667</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9610631313469137</v>
+        <v>0.9607995587698008</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>938</v>
@@ -2161,19 +2161,19 @@
         <v>1018515</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>996233</v>
+        <v>995568</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1036754</v>
+        <v>1036084</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9104834343133837</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8905646485221891</v>
+        <v>0.8899700078146154</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9267880828874792</v>
+        <v>0.926189049932934</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1866</v>
@@ -2182,19 +2182,19 @@
         <v>2007622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1980117</v>
+        <v>1980502</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2030821</v>
+        <v>2030291</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9283421799975012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9156236452355698</v>
+        <v>0.915802008643691</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9390698290791158</v>
+        <v>0.9388245174250834</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>41544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29182</v>
+        <v>29337</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56062</v>
+        <v>55672</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04251859784825914</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02986683905497688</v>
+        <v>0.03002514622552553</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05737702613155254</v>
+        <v>0.05697877595585755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -2307,19 +2307,19 @@
         <v>73714</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58315</v>
+        <v>57733</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93122</v>
+        <v>91542</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06736394842037294</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05329201801304419</v>
+        <v>0.05275991763080695</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08510018895151493</v>
+        <v>0.08365659576001964</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>108</v>
@@ -2328,19 +2328,19 @@
         <v>115258</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95212</v>
+        <v>94493</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139896</v>
+        <v>138432</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05564410756281695</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04596633604098874</v>
+        <v>0.04561960435138784</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06753894581783444</v>
+        <v>0.0668324492318879</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>935529</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>921011</v>
+        <v>921401</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947891</v>
+        <v>947736</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9574814021517408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9426229738684474</v>
+        <v>0.9430212240441425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9701331609450231</v>
+        <v>0.9699748537744748</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>951</v>
@@ -2378,19 +2378,19 @@
         <v>1020548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1001140</v>
+        <v>1002720</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1035947</v>
+        <v>1036529</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.932636051579627</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9148998110484853</v>
+        <v>0.9163434042399804</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9467079819869558</v>
+        <v>0.947240082369193</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1836</v>
@@ -2399,19 +2399,19 @@
         <v>1956077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1931439</v>
+        <v>1932903</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1976123</v>
+        <v>1976842</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9443558924371831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9324610541821657</v>
+        <v>0.9331675507681121</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9540336639590112</v>
+        <v>0.9543803956486124</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>51037</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38304</v>
+        <v>39316</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65236</v>
+        <v>67237</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05772827462308842</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04332600535278058</v>
+        <v>0.0444706175690801</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0737888024005036</v>
+        <v>0.07605222403596806</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -2524,19 +2524,19 @@
         <v>49706</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37862</v>
+        <v>37683</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64193</v>
+        <v>64558</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0567555283902037</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04323115336100322</v>
+        <v>0.04302721546216846</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07329619679826846</v>
+        <v>0.07371317646954781</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -2545,19 +2545,19 @@
         <v>100743</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84727</v>
+        <v>81600</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123433</v>
+        <v>122932</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05724419459630952</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04814327931030853</v>
+        <v>0.04636659852041116</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07013707258568085</v>
+        <v>0.06985189983300891</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>833056</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>818857</v>
+        <v>816856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>845789</v>
+        <v>844777</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9422717253769116</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9262111975994963</v>
+        <v>0.9239477759640319</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9566739946472195</v>
+        <v>0.9555293824309199</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>773</v>
@@ -2595,19 +2595,19 @@
         <v>826090</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>811603</v>
+        <v>811238</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>837934</v>
+        <v>838113</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9432444716097963</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9267038032017315</v>
+        <v>0.9262868235304522</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9567688466389968</v>
+        <v>0.9569727845378315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1552</v>
@@ -2616,19 +2616,19 @@
         <v>1659146</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1636456</v>
+        <v>1636957</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1675162</v>
+        <v>1678289</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9427558054036905</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9298629274143199</v>
+        <v>0.9301481001669911</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9518567206896917</v>
+        <v>0.9536334014795889</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>27415</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17457</v>
+        <v>17692</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39657</v>
+        <v>41242</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05449986669683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03470357856475986</v>
+        <v>0.03517149338875544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07883654741750037</v>
+        <v>0.08198897823710601</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -2741,19 +2741,19 @@
         <v>35614</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24592</v>
+        <v>24805</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48865</v>
+        <v>49352</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07866326774255544</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05431917973202649</v>
+        <v>0.05478990191909806</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1079324372620477</v>
+        <v>0.1090092407936883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -2762,19 +2762,19 @@
         <v>63028</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49087</v>
+        <v>48094</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80308</v>
+        <v>81096</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06594589034343276</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05135914365616438</v>
+        <v>0.05032014595616724</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08402509820873834</v>
+        <v>0.08484999741295016</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>475608</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>463366</v>
+        <v>461781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>485566</v>
+        <v>485331</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.94550013330317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9211634525824995</v>
+        <v>0.9180110217628941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9652964214352401</v>
+        <v>0.9648285066112446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>379</v>
@@ -2812,19 +2812,19 @@
         <v>417122</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>403871</v>
+        <v>403384</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>428144</v>
+        <v>427931</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9213367322574446</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8920675627379522</v>
+        <v>0.8909907592063123</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9456808202679735</v>
+        <v>0.9452100980809021</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>816</v>
@@ -2833,19 +2833,19 @@
         <v>892730</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>875450</v>
+        <v>874662</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>906671</v>
+        <v>907664</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9340541096565672</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9159749017912615</v>
+        <v>0.9151500025870498</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9486408563438357</v>
+        <v>0.9496798540438328</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>174824</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150399</v>
+        <v>149328</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203951</v>
+        <v>203758</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05129625189296588</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04412960691337488</v>
+        <v>0.04381527144296931</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05984269455687533</v>
+        <v>0.05978600631596661</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>242</v>
@@ -2958,19 +2958,19 @@
         <v>259172</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>226941</v>
+        <v>227848</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>292388</v>
+        <v>296368</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07318244171455753</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06408135399519575</v>
+        <v>0.06433754478713426</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08256168175319609</v>
+        <v>0.08368569653714737</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>405</v>
@@ -2979,19 +2979,19 @@
         <v>433996</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>395062</v>
+        <v>391016</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>474753</v>
+        <v>474933</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06244928327370662</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05684695707707706</v>
+        <v>0.05626476334942781</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0683140197785814</v>
+        <v>0.06833984965349976</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3233299</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3204172</v>
+        <v>3204365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3257724</v>
+        <v>3258795</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9487037481070342</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9401573054431247</v>
+        <v>0.9402139936840339</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9558703930866251</v>
+        <v>0.9561847285570307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3041</v>
@@ -3029,19 +3029,19 @@
         <v>3282274</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3249058</v>
+        <v>3245078</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3314505</v>
+        <v>3313598</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9268175582854424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9174383182468039</v>
+        <v>0.9163143034628526</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9359186460048042</v>
+        <v>0.9356624552128657</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6070</v>
@@ -3050,19 +3050,19 @@
         <v>6515574</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6474817</v>
+        <v>6474637</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6554508</v>
+        <v>6558554</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9375507167262934</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9316859802214186</v>
+        <v>0.9316601503465003</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9431530429229229</v>
+        <v>0.9437352366505721</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>47776</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37047</v>
+        <v>36245</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62717</v>
+        <v>63869</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04235459151717806</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03284321633338256</v>
+        <v>0.03213174280931014</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05560012349038921</v>
+        <v>0.05662121404842514</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -3415,19 +3415,19 @@
         <v>103558</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84664</v>
+        <v>84601</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125832</v>
+        <v>124955</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08221776392593561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06721686543247028</v>
+        <v>0.06716699368164646</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09990149222724497</v>
+        <v>0.09920484866098538</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>145</v>
@@ -3436,19 +3436,19 @@
         <v>151334</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>126037</v>
+        <v>129695</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>175847</v>
+        <v>177230</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06338448403875672</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05278890520238992</v>
+        <v>0.0543210383924227</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07365129540267938</v>
+        <v>0.07423050348670206</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1080221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1065280</v>
+        <v>1064128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1090950</v>
+        <v>1091752</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.957645408482822</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9443998765096108</v>
+        <v>0.9433787859515748</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9671567836666173</v>
+        <v>0.9678682571906898</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1090</v>
@@ -3486,19 +3486,19 @@
         <v>1156003</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1133729</v>
+        <v>1134606</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1174897</v>
+        <v>1174960</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9177822360740644</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9000985077727548</v>
+        <v>0.9007951513390146</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9327831345675296</v>
+        <v>0.9328330063183535</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2109</v>
@@ -3507,19 +3507,19 @@
         <v>2236224</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2211711</v>
+        <v>2210328</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2261521</v>
+        <v>2257863</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9366155159612433</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9263487045973207</v>
+        <v>0.925769496513298</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9472110947976101</v>
+        <v>0.9456789616075774</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>45326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34787</v>
+        <v>32783</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59795</v>
+        <v>60906</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.049873647680481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03827650906743334</v>
+        <v>0.03607140554291243</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06579387327028517</v>
+        <v>0.06701593986034031</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -3632,19 +3632,19 @@
         <v>78574</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62235</v>
+        <v>62166</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96339</v>
+        <v>98643</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07806864015239005</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06183457227048633</v>
+        <v>0.06176592857536443</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09571923667638194</v>
+        <v>0.09800827637677767</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -3653,19 +3653,19 @@
         <v>123901</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103692</v>
+        <v>105185</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147007</v>
+        <v>147333</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0646898969849958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05413895997322532</v>
+        <v>0.05491854605761208</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07675428631238486</v>
+        <v>0.07692413516705859</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>863499</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>849030</v>
+        <v>847919</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>874038</v>
+        <v>876042</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.950126352319519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9342061267297147</v>
+        <v>0.9329840601396596</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9617234909325666</v>
+        <v>0.9639285944570876</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>876</v>
@@ -3703,19 +3703,19 @@
         <v>927901</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>910136</v>
+        <v>907832</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>944240</v>
+        <v>944309</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.92193135984761</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9042807633236181</v>
+        <v>0.9019917236232223</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9381654277295135</v>
+        <v>0.9382340714246356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1713</v>
@@ -3724,19 +3724,19 @@
         <v>1791399</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1768293</v>
+        <v>1767967</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1811608</v>
+        <v>1810115</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9353101030150042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.923245713687615</v>
+        <v>0.9230758648329414</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9458610400267746</v>
+        <v>0.9450814539423879</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>47897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35864</v>
+        <v>35521</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63133</v>
+        <v>62429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0581446220390442</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04353754575579368</v>
+        <v>0.04312013365259693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0766405268260258</v>
+        <v>0.07578574217238773</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -3849,19 +3849,19 @@
         <v>57742</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44415</v>
+        <v>45216</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72419</v>
+        <v>74262</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07488706482122692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.057602991281863</v>
+        <v>0.05864101486378333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09392113692500074</v>
+        <v>0.09631107013863006</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -3870,19 +3870,19 @@
         <v>105639</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85534</v>
+        <v>87100</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126127</v>
+        <v>127074</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06623921727867661</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05363226401868428</v>
+        <v>0.05461438435569412</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0790853727782149</v>
+        <v>0.07967952807011917</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>775862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>760626</v>
+        <v>761330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>787895</v>
+        <v>788238</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9418553779609558</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9233594731739743</v>
+        <v>0.9242142578276122</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9564624542442064</v>
+        <v>0.9568798663474031</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>672</v>
@@ -3920,19 +3920,19 @@
         <v>713317</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>698640</v>
+        <v>696797</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>726644</v>
+        <v>725843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.925112935178773</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9060788630749992</v>
+        <v>0.9036889298613701</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9423970087181369</v>
+        <v>0.9413589851362167</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1413</v>
@@ -3941,19 +3941,19 @@
         <v>1489179</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1468691</v>
+        <v>1467744</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1509284</v>
+        <v>1507718</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9337607827213233</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.920914627221785</v>
+        <v>0.9203204719298808</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9463677359813154</v>
+        <v>0.9453856156443058</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>26470</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17318</v>
+        <v>16293</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38278</v>
+        <v>38869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0522389913024706</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03417741195461868</v>
+        <v>0.03215568441973669</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07554281649539873</v>
+        <v>0.07670963573463641</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -4066,19 +4066,19 @@
         <v>39569</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27293</v>
+        <v>27324</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53918</v>
+        <v>53313</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08080384756044121</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05573352389519014</v>
+        <v>0.05579694107752214</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1101038386024321</v>
+        <v>0.108868836506797</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -4087,19 +4087,19 @@
         <v>66039</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51026</v>
+        <v>50087</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83361</v>
+        <v>82597</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06627769252179334</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05121031623370554</v>
+        <v>0.05026765513123795</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08366209226190244</v>
+        <v>0.08289561547278153</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>480231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>468423</v>
+        <v>467832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>489383</v>
+        <v>490408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9477610086975294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9244571835046013</v>
+        <v>0.9232903642653636</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9658225880453813</v>
+        <v>0.9678443155802633</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>420</v>
@@ -4137,19 +4137,19 @@
         <v>450129</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>435780</v>
+        <v>436385</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>462405</v>
+        <v>462374</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9191961524395588</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8898961613975683</v>
+        <v>0.8911311634932032</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.94426647610481</v>
+        <v>0.9442030589224779</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>868</v>
@@ -4158,19 +4158,19 @@
         <v>930359</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>913037</v>
+        <v>913801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>945372</v>
+        <v>946311</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9337223074782066</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9163379077380975</v>
+        <v>0.9171043845272184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9487896837662944</v>
+        <v>0.9497323448687621</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>167469</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>145235</v>
+        <v>141165</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>195681</v>
+        <v>194173</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04973417022616555</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04313109778161319</v>
+        <v>0.04192252406195277</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.058112305177292</v>
+        <v>0.05766463864935759</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>264</v>
@@ -4283,19 +4283,19 @@
         <v>279444</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>248231</v>
+        <v>246685</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>313056</v>
+        <v>311173</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07923466178374995</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07038422944587965</v>
+        <v>0.06994596589000707</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08876517752097354</v>
+        <v>0.08823128370450052</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>424</v>
@@ -4304,19 +4304,19 @@
         <v>446913</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>405144</v>
+        <v>407243</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>486777</v>
+        <v>486125</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06482569650807893</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05876693766810725</v>
+        <v>0.05907140176455855</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0706080682369553</v>
+        <v>0.07051348802675743</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3199813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3171601</v>
+        <v>3173109</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3222047</v>
+        <v>3226117</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9502658297738344</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9418876948227074</v>
+        <v>0.9423353613506424</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9568689022183867</v>
+        <v>0.9580774759380476</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3058</v>
@@ -4354,19 +4354,19 @@
         <v>3247348</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3213736</v>
+        <v>3215619</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3278561</v>
+        <v>3280107</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9207653382162501</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9112348224790264</v>
+        <v>0.9117687162954994</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9296157705541203</v>
+        <v>0.9300540341099929</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6103</v>
@@ -4375,19 +4375,19 @@
         <v>6447162</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6407298</v>
+        <v>6407950</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6488931</v>
+        <v>6486832</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9351743034919211</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9293919317630446</v>
+        <v>0.9294865119732423</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9412330623318924</v>
+        <v>0.9409285982354415</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>55859</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43071</v>
+        <v>42007</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72739</v>
+        <v>73223</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1128417751567503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08700779686886687</v>
+        <v>0.08485743730924643</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1469407943451007</v>
+        <v>0.1479180434327415</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>131</v>
@@ -4740,19 +4740,19 @@
         <v>95759</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78859</v>
+        <v>81070</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112373</v>
+        <v>113471</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1537299945868077</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1265988956977604</v>
+        <v>0.1301478852080125</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1804017764398582</v>
+        <v>0.1821645862962684</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>181</v>
@@ -4761,19 +4761,19 @@
         <v>151619</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>131122</v>
+        <v>131609</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>174812</v>
+        <v>173781</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.135624453104888</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1172903454715894</v>
+        <v>0.1177258435348894</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1563710467218715</v>
+        <v>0.155449287025791</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>439166</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>422286</v>
+        <v>421802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>451954</v>
+        <v>453018</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8871582248432498</v>
+        <v>0.8871582248432496</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8530592056548993</v>
+        <v>0.8520819565672583</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9129922031311332</v>
+        <v>0.9151425626907533</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>729</v>
@@ -4811,19 +4811,19 @@
         <v>527144</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>510530</v>
+        <v>509432</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>544044</v>
+        <v>541833</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8462700054131923</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8195982235601419</v>
+        <v>0.8178354137037314</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8734011043022396</v>
+        <v>0.8698521147919873</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1130</v>
@@ -4832,19 +4832,19 @@
         <v>966310</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>943117</v>
+        <v>944148</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>986807</v>
+        <v>986320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.864375546895112</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8436289532781284</v>
+        <v>0.8445507129742084</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8827096545284105</v>
+        <v>0.8822741564651099</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>69889</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54459</v>
+        <v>53789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90003</v>
+        <v>90686</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0727903170607121</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05672029793430929</v>
+        <v>0.05602271560847785</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09374014512732026</v>
+        <v>0.0944514165635708</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -4957,19 +4957,19 @@
         <v>113806</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>96394</v>
+        <v>98610</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>131833</v>
+        <v>134236</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1023431564419075</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08668549270955064</v>
+        <v>0.08867816745566355</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1185543038028621</v>
+        <v>0.1207152615990655</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>224</v>
@@ -4978,19 +4978,19 @@
         <v>183694</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>160608</v>
+        <v>160864</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210705</v>
+        <v>212240</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08864968691450756</v>
+        <v>0.08864968691450757</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07750808374816824</v>
+        <v>0.07763169068473345</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.101684812424947</v>
+        <v>0.1024256222221885</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>890248</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>870134</v>
+        <v>869451</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>905678</v>
+        <v>906348</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9272096829392881</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9062598548726795</v>
+        <v>0.9055485834364294</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9432797020656902</v>
+        <v>0.9439772843915223</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1442</v>
@@ -5028,19 +5028,19 @@
         <v>998196</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>980169</v>
+        <v>977766</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1015608</v>
+        <v>1013392</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8976568435580927</v>
+        <v>0.8976568435580925</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8814456961971375</v>
+        <v>0.8792847384009342</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9133145072904492</v>
+        <v>0.9113218325443364</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2289</v>
@@ -5049,19 +5049,19 @@
         <v>1888445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1861434</v>
+        <v>1859899</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1911531</v>
+        <v>1911275</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9113503130854923</v>
+        <v>0.9113503130854924</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8983151875750536</v>
+        <v>0.8975743777778121</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9224919162518318</v>
+        <v>0.9223683093152671</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>97605</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77720</v>
+        <v>77322</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121867</v>
+        <v>120219</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09326983807745524</v>
+        <v>0.09326983807745522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07426801973028836</v>
+        <v>0.07388785049950589</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.116453963368093</v>
+        <v>0.1148795365372418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>158</v>
@@ -5174,19 +5174,19 @@
         <v>115626</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>100150</v>
+        <v>97972</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135403</v>
+        <v>134690</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1115392264687545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09661006233742309</v>
+        <v>0.09450847971383995</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1306172897838646</v>
+        <v>0.129929338709537</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>243</v>
@@ -5195,19 +5195,19 @@
         <v>213231</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>185966</v>
+        <v>185622</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>244869</v>
+        <v>245744</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1023614007286007</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08927279810915556</v>
+        <v>0.0891073678371654</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1175489423493206</v>
+        <v>0.1179690896117627</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>948874</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>924612</v>
+        <v>926260</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>968759</v>
+        <v>969157</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9067301619225449</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.883546036631907</v>
+        <v>0.8851204634627582</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9257319802697115</v>
+        <v>0.9261121495004941</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1346</v>
@@ -5245,19 +5245,19 @@
         <v>921017</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>901240</v>
+        <v>901953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>936493</v>
+        <v>938671</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8884607735312455</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8693827102161353</v>
+        <v>0.8700706612904632</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9033899376625769</v>
+        <v>0.9054915202861601</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2290</v>
@@ -5266,19 +5266,19 @@
         <v>1869892</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1838254</v>
+        <v>1837379</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1897157</v>
+        <v>1897501</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8976385992713992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8824510576506787</v>
+        <v>0.8820309103882372</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9107272018908441</v>
+        <v>0.9108926321628348</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>116908</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95065</v>
+        <v>95286</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144324</v>
+        <v>143981</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1199296307164975</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09752190903156358</v>
+        <v>0.09774915007034352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1480547624557549</v>
+        <v>0.147702619541278</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>170</v>
@@ -5391,19 +5391,19 @@
         <v>116077</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>100255</v>
+        <v>100001</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>134252</v>
+        <v>136772</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1278602130314114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1104314604170579</v>
+        <v>0.1101518404523426</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1478797196283667</v>
+        <v>0.150655299457344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>271</v>
@@ -5412,19 +5412,19 @@
         <v>232985</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>204343</v>
+        <v>204141</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>264027</v>
+        <v>266482</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1237538963714324</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1085402950116575</v>
+        <v>0.1084328106884261</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1402424056126891</v>
+        <v>0.1415465127150359</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>857894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>830478</v>
+        <v>830821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>879737</v>
+        <v>879516</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8800703692835026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8519452375442458</v>
+        <v>0.8522973804587221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9024780909684367</v>
+        <v>0.9022508499296564</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1149</v>
@@ -5462,19 +5462,19 @@
         <v>791769</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>773594</v>
+        <v>771074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>807591</v>
+        <v>807845</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8721397869685885</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8521202803716333</v>
+        <v>0.849344700542656</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8895685395829419</v>
+        <v>0.8898481595476577</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1994</v>
@@ -5483,19 +5483,19 @@
         <v>1649662</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1618620</v>
+        <v>1616165</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1678304</v>
+        <v>1678506</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8762461036285677</v>
+        <v>0.8762461036285675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8597575943873109</v>
+        <v>0.8584534872849641</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8914597049883427</v>
+        <v>0.891567189311574</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>340261</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>301020</v>
+        <v>303907</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>385334</v>
+        <v>381906</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09787612108388966</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08658845355518487</v>
+        <v>0.08741907537458674</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.110841567618555</v>
+        <v>0.1098555134244126</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>620</v>
@@ -5608,19 +5608,19 @@
         <v>441268</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>404316</v>
+        <v>404911</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>475227</v>
+        <v>475977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1199296460657401</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1098865195345066</v>
+        <v>0.1100482382207487</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1291589342831287</v>
+        <v>0.1293628160696718</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>919</v>
@@ -5629,19 +5629,19 @@
         <v>781529</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>730117</v>
+        <v>732439</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>837119</v>
+        <v>838843</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1092156200508846</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1020309576115071</v>
+        <v>0.1023554107425915</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1169841451177096</v>
+        <v>0.1172250701709609</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3136182</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3091109</v>
+        <v>3094537</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3175423</v>
+        <v>3172536</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9021238789161103</v>
+        <v>0.9021238789161105</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.889158432381445</v>
+        <v>0.8901444865755874</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9134115464448141</v>
+        <v>0.9125809246254132</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4666</v>
@@ -5679,19 +5679,19 @@
         <v>3238126</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3204167</v>
+        <v>3203417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3275078</v>
+        <v>3274483</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8800703539342599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8708410657168711</v>
+        <v>0.870637183930328</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8901134804654932</v>
+        <v>0.8899517617792512</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7703</v>
@@ -5700,19 +5700,19 @@
         <v>6374308</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6318718</v>
+        <v>6316994</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6425720</v>
+        <v>6423398</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8907843799491152</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8830158548822905</v>
+        <v>0.8827749298290395</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8979690423884932</v>
+        <v>0.897644589257409</v>
       </c>
     </row>
     <row r="18">
